--- a/API設計_20201021.xlsx
+++ b/API設計_20201021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotori\Documents\GitHub\SerakuPJ_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFA09F6-A3B1-43FE-88D2-0F92C704371B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B189EE3B-9BE0-41E3-977E-4C83B79754C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
+    <workbookView xWindow="3915" yWindow="1530" windowWidth="20490" windowHeight="11295" activeTab="2" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Store（店舗情報）" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="182">
   <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
@@ -1329,6 +1329,49 @@
   </si>
   <si>
     <t>Param</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・支払い情報更新</t>
+    <rPh sb="1" eb="3">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Postmanにて「URL/payment」をURL欄に入力し、Body項目にてオーダーコードを設定し、Sendボタンを押下</t>
+    <rPh sb="60" eb="62">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功するとオーダーコードが表示され、支払い済みフラグが成立する</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body(form-data)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2048,7 +2091,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2358,6 +2401,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2385,39 +2488,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2427,28 +2500,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2466,12 +2521,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2487,7 +2536,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4503,81 +4555,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="128"/>
+      <c r="I2" s="120"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="122"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="129" t="s">
+      <c r="H3" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="130"/>
+      <c r="I3" s="122"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="108"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="106"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="126"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -4595,31 +4647,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="117"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="132"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="119"/>
+      <c r="H10" s="106"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="131"/>
-      <c r="B11" s="132"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -4671,7 +4723,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="109" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="116" t="s">
@@ -4680,22 +4732,22 @@
       <c r="C17" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="117"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="118" t="s">
+      <c r="G17" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="119"/>
+      <c r="H17" s="106"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="131"/>
-      <c r="B18" s="133"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -4747,31 +4799,31 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="132"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="118" t="s">
+      <c r="G24" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="119"/>
+      <c r="H24" s="106"/>
       <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="113"/>
-      <c r="B25" s="115"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="40" t="s">
         <v>69</v>
       </c>
@@ -4795,13 +4847,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="111" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="133" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="44" t="s">
@@ -4824,11 +4876,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="121"/>
+      <c r="A27" s="112"/>
       <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="124"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4847,11 +4899,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="121"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="124"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
@@ -4870,11 +4922,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="121"/>
+      <c r="A29" s="112"/>
       <c r="B29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="124"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
@@ -4893,11 +4945,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="121"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="124"/>
+      <c r="C30" s="134"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -4916,11 +4968,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="121"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="124"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
@@ -4939,11 +4991,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="122"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="125"/>
+      <c r="C32" s="135"/>
       <c r="D32" s="46" t="s">
         <v>8</v>
       </c>
@@ -4984,31 +5036,31 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="112" t="s">
+      <c r="A38" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="114" t="s">
+      <c r="B38" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="117"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="132"/>
       <c r="F38" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="118" t="s">
+      <c r="G38" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="119"/>
+      <c r="H38" s="106"/>
       <c r="I38" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="113"/>
-      <c r="B39" s="115"/>
+      <c r="A39" s="110"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="40" t="s">
         <v>69</v>
       </c>
@@ -5032,7 +5084,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="120" t="s">
+      <c r="A40" s="111" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -5061,11 +5113,11 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="121"/>
+      <c r="A41" s="112"/>
       <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="109" t="s">
+      <c r="C41" s="129" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -5086,11 +5138,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="121"/>
+      <c r="A42" s="112"/>
       <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="110"/>
+      <c r="C42" s="130"/>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
@@ -5109,11 +5161,11 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="121"/>
+      <c r="A43" s="112"/>
       <c r="B43" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="110"/>
+      <c r="C43" s="130"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
@@ -5132,11 +5184,11 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="121"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="110"/>
+      <c r="C44" s="130"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
@@ -5155,11 +5207,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="121"/>
+      <c r="A45" s="112"/>
       <c r="B45" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="110"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
@@ -5178,11 +5230,11 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="122"/>
+      <c r="A46" s="113"/>
       <c r="B46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="111"/>
+      <c r="C46" s="131"/>
       <c r="D46" s="46" t="s">
         <v>8</v>
       </c>
@@ -5230,31 +5282,31 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="112" t="s">
+      <c r="A51" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="114" t="s">
+      <c r="B51" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="114"/>
-      <c r="E51" s="117"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="132"/>
       <c r="F51" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="118" t="s">
+      <c r="G51" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="119"/>
+      <c r="H51" s="106"/>
       <c r="I51" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="113"/>
-      <c r="B52" s="115"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="108"/>
       <c r="C52" s="40" t="s">
         <v>69</v>
       </c>
@@ -5308,21 +5360,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:I5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C41:C46"/>
@@ -5339,6 +5376,21 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C26:C32"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5362,81 +5414,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="128"/>
+      <c r="I2" s="120"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="122"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="129" t="s">
+      <c r="H3" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="130"/>
+      <c r="I3" s="122"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="108"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="106"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="126"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -5454,31 +5506,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="117"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="132"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="119"/>
+      <c r="H10" s="106"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="131"/>
-      <c r="B11" s="132"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -5530,7 +5582,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="109" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="116" t="s">
@@ -5539,22 +5591,22 @@
       <c r="C17" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="117"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="118" t="s">
+      <c r="G17" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="119"/>
+      <c r="H17" s="106"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="131"/>
-      <c r="B18" s="133"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -5606,31 +5658,31 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="132"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="118" t="s">
+      <c r="G24" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="119"/>
+      <c r="H24" s="106"/>
       <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="131"/>
-      <c r="B25" s="132"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="52" t="s">
         <v>69</v>
       </c>
@@ -5654,13 +5706,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="134" t="s">
+      <c r="A26" s="138" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="136" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="54" t="s">
@@ -5683,11 +5735,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="135"/>
+      <c r="A27" s="139"/>
       <c r="B27" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="140"/>
+      <c r="C27" s="137"/>
       <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
@@ -5706,11 +5758,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="135"/>
+      <c r="A28" s="139"/>
       <c r="B28" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="140"/>
+      <c r="C28" s="137"/>
       <c r="D28" s="4" t="s">
         <v>21</v>
       </c>
@@ -5731,11 +5783,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="136"/>
+      <c r="A29" s="140"/>
       <c r="B29" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="108"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="55" t="s">
         <v>22</v>
       </c>
@@ -5777,31 +5829,31 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="117"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="132"/>
       <c r="F35" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="118" t="s">
+      <c r="G35" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="119"/>
+      <c r="H35" s="106"/>
       <c r="I35" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="131"/>
-      <c r="B36" s="132"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="52" t="s">
         <v>69</v>
       </c>
@@ -5825,7 +5877,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="138" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="61" t="s">
@@ -5854,11 +5906,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="135"/>
+      <c r="A38" s="139"/>
       <c r="B38" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="137" t="s">
+      <c r="C38" s="141" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -5879,11 +5931,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="135"/>
+      <c r="A39" s="139"/>
       <c r="B39" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="137"/>
+      <c r="C39" s="141"/>
       <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
@@ -5904,11 +5956,11 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="136"/>
+      <c r="A40" s="140"/>
       <c r="B40" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="138"/>
+      <c r="C40" s="142"/>
       <c r="D40" s="55" t="s">
         <v>22</v>
       </c>
@@ -5945,31 +5997,31 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="112" t="s">
+      <c r="A45" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="114"/>
-      <c r="E45" s="117"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="132"/>
       <c r="F45" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="118" t="s">
+      <c r="G45" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="119"/>
+      <c r="H45" s="106"/>
       <c r="I45" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="113"/>
-      <c r="B46" s="115"/>
+      <c r="A46" s="110"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="40" t="s">
         <v>69</v>
       </c>
@@ -6023,6 +6075,1024 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664B7A0-99C2-4176-847A-EBEF7477ADCC}">
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="10" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="120"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="122"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="128"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="126"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="107"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="106"/>
+      <c r="I10" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="114"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="107"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="106"/>
+      <c r="I17" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="114"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="107"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="106"/>
+      <c r="I24" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="132"/>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="110"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="64"/>
+      <c r="B27" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="64"/>
+      <c r="B28" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="143" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="64"/>
+      <c r="B29" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="143"/>
+      <c r="D29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="64"/>
+      <c r="B30" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="143"/>
+      <c r="D30" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="87"/>
+      <c r="F30" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="J30" s="89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="64"/>
+      <c r="B31" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="143"/>
+      <c r="D31" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="I31" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" s="89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="65"/>
+      <c r="B32" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="107"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="106"/>
+      <c r="I37" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="132"/>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="114"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="148" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="148" t="s">
+        <v>172</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="149"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="107"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="106"/>
+      <c r="I45" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="110"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="112"/>
+      <c r="B48" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="112"/>
+      <c r="B49" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="130"/>
+      <c r="D49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="112"/>
+      <c r="B50" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="130"/>
+      <c r="D50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="112"/>
+      <c r="B51" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="130"/>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="112"/>
+      <c r="B52" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="130"/>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="113"/>
+      <c r="B53" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="131"/>
+      <c r="D53" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="107"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="106"/>
+      <c r="I58" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="132"/>
+    </row>
+    <row r="59" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="110"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="G60" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="J60" s="51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I58:J58"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:I5"/>
     <mergeCell ref="A1:I1"/>
@@ -6038,910 +7108,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="C38:C40"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664B7A0-99C2-4176-847A-EBEF7477ADCC}">
-  <dimension ref="A1:J53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="10" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="127" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="128"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="129" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="130"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="108"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="106"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="131"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="119"/>
-      <c r="I17" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="131"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="119"/>
-      <c r="I24" s="116" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="117"/>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="113"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="64"/>
-      <c r="B27" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="64"/>
-      <c r="B28" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="141" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="64"/>
-      <c r="B29" s="100" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="141"/>
-      <c r="D29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="64"/>
-      <c r="B30" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="141"/>
-      <c r="D30" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="85" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="H30" s="87" t="s">
-        <v>168</v>
-      </c>
-      <c r="I30" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="J30" s="89" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="64"/>
-      <c r="B31" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="141"/>
-      <c r="D31" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="F31" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="88" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="I31" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="J31" s="89" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="65"/>
-      <c r="B32" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="119"/>
-      <c r="I38" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="113"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="120" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="121"/>
-      <c r="B41" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="121"/>
-      <c r="B42" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="110"/>
-      <c r="D42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="121"/>
-      <c r="B43" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="110"/>
-      <c r="D43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="121"/>
-      <c r="B44" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="121"/>
-      <c r="B45" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="110"/>
-      <c r="D45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="122"/>
-      <c r="B46" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="111"/>
-      <c r="D46" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="114"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="H51" s="119"/>
-      <c r="I51" s="116" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="117"/>
-    </row>
-    <row r="52" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="113"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I52" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="G53" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="J53" s="51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7034,7 +7200,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="144" t="s">
         <v>139</v>
       </c>
       <c r="C11" s="75" t="s">
@@ -7048,7 +7214,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="142"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="76" t="s">
         <v>141</v>
       </c>
@@ -7058,7 +7224,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="142"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="76" t="s">
         <v>12</v>
       </c>
@@ -7067,7 +7233,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="142"/>
+      <c r="B14" s="144"/>
       <c r="C14" s="76" t="s">
         <v>142</v>
       </c>
@@ -7076,7 +7242,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="143"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="77" t="s">
         <v>143</v>
       </c>
@@ -7085,7 +7251,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="144" t="s">
         <v>144</v>
       </c>
       <c r="C16" s="75" t="s">
@@ -7097,7 +7263,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="142"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="76" t="s">
         <v>107</v>
       </c>
@@ -7106,7 +7272,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="142"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="76" t="s">
         <v>146</v>
       </c>
@@ -7115,7 +7281,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="143"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="77" t="s">
         <v>140</v>
       </c>
@@ -7143,7 +7309,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="146" t="s">
         <v>139</v>
       </c>
       <c r="C23" s="78" t="s">
@@ -7157,14 +7323,14 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="144"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="80" t="s">
         <v>141</v>
       </c>
       <c r="D24" s="81"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="144"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="80" t="s">
         <v>12</v>
       </c>
@@ -7173,7 +7339,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="144"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="80" t="s">
         <v>142</v>
       </c>
@@ -7182,7 +7348,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="145"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="83" t="s">
         <v>143</v>
       </c>
@@ -7191,7 +7357,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="144" t="s">
         <v>144</v>
       </c>
       <c r="C28" s="75" t="s">
@@ -7203,7 +7369,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="142"/>
+      <c r="B29" s="144"/>
       <c r="C29" s="76" t="s">
         <v>107</v>
       </c>
@@ -7212,7 +7378,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="142"/>
+      <c r="B30" s="144"/>
       <c r="C30" s="76" t="s">
         <v>146</v>
       </c>
@@ -7221,7 +7387,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="143"/>
+      <c r="B31" s="145"/>
       <c r="C31" s="77" t="s">
         <v>140</v>
       </c>
